--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.03912099999999</v>
+        <v>45.53411833333333</v>
       </c>
       <c r="H2">
-        <v>153.117363</v>
+        <v>136.602355</v>
       </c>
       <c r="I2">
-        <v>0.2288139998825843</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="J2">
-        <v>0.2288139998825843</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7109436666666666</v>
+        <v>1.439587333333333</v>
       </c>
       <c r="N2">
-        <v>2.132831</v>
+        <v>4.318762</v>
       </c>
       <c r="O2">
-        <v>0.5327047435459068</v>
+        <v>0.66941297663234</v>
       </c>
       <c r="P2">
-        <v>0.5327047435459068</v>
+        <v>0.6694129766323401</v>
       </c>
       <c r="Q2">
-        <v>36.28593982718366</v>
+        <v>65.55033998716776</v>
       </c>
       <c r="R2">
-        <v>326.5734584446529</v>
+        <v>589.9530598845099</v>
       </c>
       <c r="S2">
-        <v>0.1218903031271652</v>
+        <v>0.1393101803776598</v>
       </c>
       <c r="T2">
-        <v>0.1218903031271652</v>
+        <v>0.1393101803776598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.03912099999999</v>
+        <v>45.53411833333333</v>
       </c>
       <c r="H3">
-        <v>153.117363</v>
+        <v>136.602355</v>
       </c>
       <c r="I3">
-        <v>0.2288139998825843</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="J3">
-        <v>0.2288139998825843</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>1.257322</v>
       </c>
       <c r="O3">
-        <v>0.3140339734205976</v>
+        <v>0.194886326823596</v>
       </c>
       <c r="P3">
-        <v>0.3140339734205976</v>
+        <v>0.194886326823596</v>
       </c>
       <c r="Q3">
-        <v>21.39086989798733</v>
+        <v>19.08368291036778</v>
       </c>
       <c r="R3">
-        <v>192.517829081886</v>
+        <v>171.75314619331</v>
       </c>
       <c r="S3">
-        <v>0.07185536955738811</v>
+        <v>0.04055739922987189</v>
       </c>
       <c r="T3">
-        <v>0.07185536955738811</v>
+        <v>0.0405573992298719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.03912099999999</v>
+        <v>45.53411833333333</v>
       </c>
       <c r="H4">
-        <v>153.117363</v>
+        <v>136.602355</v>
       </c>
       <c r="I4">
-        <v>0.2288139998825843</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="J4">
-        <v>0.2288139998825843</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2045413333333333</v>
+        <v>0.2590796666666667</v>
       </c>
       <c r="N4">
-        <v>0.6136239999999999</v>
+        <v>0.777239</v>
       </c>
       <c r="O4">
-        <v>0.1532612830334956</v>
+        <v>0.1204729208381345</v>
       </c>
       <c r="P4">
-        <v>0.1532612830334956</v>
+        <v>0.1204729208381345</v>
       </c>
       <c r="Q4">
-        <v>10.43960986150133</v>
+        <v>11.79696419976055</v>
       </c>
       <c r="R4">
-        <v>93.95648875351198</v>
+        <v>106.172677797845</v>
       </c>
       <c r="S4">
-        <v>0.035068327198031</v>
+        <v>0.0250713758448722</v>
       </c>
       <c r="T4">
-        <v>0.03506832719803099</v>
+        <v>0.0250713758448722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>169.753255</v>
+        <v>45.53411833333333</v>
       </c>
       <c r="H5">
-        <v>509.259765</v>
+        <v>136.602355</v>
       </c>
       <c r="I5">
-        <v>0.7610225354319544</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="J5">
-        <v>0.7610225354319544</v>
+        <v>0.2081079770495289</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7109436666666666</v>
+        <v>0.03274766666666667</v>
       </c>
       <c r="N5">
-        <v>2.132831</v>
+        <v>0.098243</v>
       </c>
       <c r="O5">
-        <v>0.5327047435459068</v>
+        <v>0.01522777570592938</v>
       </c>
       <c r="P5">
-        <v>0.5327047435459068</v>
+        <v>0.01522777570592938</v>
       </c>
       <c r="Q5">
-        <v>120.6850015383017</v>
+        <v>1.491136129140556</v>
       </c>
       <c r="R5">
-        <v>1086.165013844715</v>
+        <v>13.420225162265</v>
       </c>
       <c r="S5">
-        <v>0.405400314569935</v>
+        <v>0.003169021597124925</v>
       </c>
       <c r="T5">
-        <v>0.405400314569935</v>
+        <v>0.003169021597124925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>509.259765</v>
       </c>
       <c r="I6">
-        <v>0.7610225354319544</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="J6">
-        <v>0.7610225354319544</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4191073333333333</v>
+        <v>1.439587333333333</v>
       </c>
       <c r="N6">
-        <v>1.257322</v>
+        <v>4.318762</v>
       </c>
       <c r="O6">
-        <v>0.3140339734205976</v>
+        <v>0.66941297663234</v>
       </c>
       <c r="P6">
-        <v>0.3140339734205976</v>
+        <v>0.6694129766323401</v>
       </c>
       <c r="Q6">
-        <v>71.14483402770333</v>
+        <v>244.3746356901033</v>
       </c>
       <c r="R6">
-        <v>640.30350624933</v>
+        <v>2199.37172121093</v>
       </c>
       <c r="S6">
-        <v>0.2389869306643141</v>
+        <v>0.5193546606223198</v>
       </c>
       <c r="T6">
-        <v>0.2389869306643141</v>
+        <v>0.5193546606223198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>509.259765</v>
       </c>
       <c r="I7">
-        <v>0.7610225354319544</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="J7">
-        <v>0.7610225354319544</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2045413333333333</v>
+        <v>0.4191073333333333</v>
       </c>
       <c r="N7">
-        <v>0.6136239999999999</v>
+        <v>1.257322</v>
       </c>
       <c r="O7">
-        <v>0.1532612830334956</v>
+        <v>0.194886326823596</v>
       </c>
       <c r="P7">
-        <v>0.1532612830334956</v>
+        <v>0.194886326823596</v>
       </c>
       <c r="Q7">
-        <v>34.72155711537333</v>
+        <v>71.14483402770333</v>
       </c>
       <c r="R7">
-        <v>312.49401403836</v>
+        <v>640.30350624933</v>
       </c>
       <c r="S7">
-        <v>0.1166352901977052</v>
+        <v>0.1511998208289728</v>
       </c>
       <c r="T7">
-        <v>0.1166352901977052</v>
+        <v>0.1511998208289729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.389044333333333</v>
+        <v>169.753255</v>
       </c>
       <c r="H8">
-        <v>4.167133</v>
+        <v>509.259765</v>
       </c>
       <c r="I8">
-        <v>0.006227238708210468</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="J8">
-        <v>0.006227238708210468</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7109436666666666</v>
+        <v>0.2590796666666667</v>
       </c>
       <c r="N8">
-        <v>2.132831</v>
+        <v>0.777239</v>
       </c>
       <c r="O8">
-        <v>0.5327047435459068</v>
+        <v>0.1204729208381345</v>
       </c>
       <c r="P8">
-        <v>0.5327047435459068</v>
+        <v>0.1204729208381345</v>
       </c>
       <c r="Q8">
-        <v>0.9875322715025555</v>
+        <v>43.97961672098166</v>
       </c>
       <c r="R8">
-        <v>8.887790443522999</v>
+        <v>395.816550488835</v>
       </c>
       <c r="S8">
-        <v>0.003317279599056402</v>
+        <v>0.09346722441927369</v>
       </c>
       <c r="T8">
-        <v>0.003317279599056402</v>
+        <v>0.0934672244192737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.389044333333333</v>
+        <v>169.753255</v>
       </c>
       <c r="H9">
-        <v>4.167133</v>
+        <v>509.259765</v>
       </c>
       <c r="I9">
-        <v>0.006227238708210468</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="J9">
-        <v>0.006227238708210468</v>
+        <v>0.7758359618827103</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4191073333333333</v>
+        <v>0.03274766666666667</v>
       </c>
       <c r="N9">
-        <v>1.257322</v>
+        <v>0.098243</v>
       </c>
       <c r="O9">
-        <v>0.3140339734205976</v>
+        <v>0.01522777570592938</v>
       </c>
       <c r="P9">
-        <v>0.3140339734205976</v>
+        <v>0.01522777570592938</v>
       </c>
       <c r="Q9">
-        <v>0.582158666425111</v>
+        <v>5.559023010321667</v>
       </c>
       <c r="R9">
-        <v>5.239427997825999</v>
+        <v>50.031207092895</v>
       </c>
       <c r="S9">
-        <v>0.001955564514977883</v>
+        <v>0.01181425601214389</v>
       </c>
       <c r="T9">
-        <v>0.001955564514977883</v>
+        <v>0.01181425601214389</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.389044333333333</v>
+        <v>2.782337</v>
       </c>
       <c r="H10">
-        <v>4.167133</v>
+        <v>8.347011</v>
       </c>
       <c r="I10">
-        <v>0.006227238708210468</v>
+        <v>0.01271632230366867</v>
       </c>
       <c r="J10">
-        <v>0.006227238708210468</v>
+        <v>0.01271632230366867</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2045413333333333</v>
+        <v>1.439587333333333</v>
       </c>
       <c r="N10">
-        <v>0.6136239999999999</v>
+        <v>4.318762</v>
       </c>
       <c r="O10">
-        <v>0.1532612830334956</v>
+        <v>0.66941297663234</v>
       </c>
       <c r="P10">
-        <v>0.1532612830334956</v>
+        <v>0.6694129766323401</v>
       </c>
       <c r="Q10">
-        <v>0.2841169799991111</v>
+        <v>4.005417102264667</v>
       </c>
       <c r="R10">
-        <v>2.557052819992</v>
+        <v>36.048753920382</v>
       </c>
       <c r="S10">
-        <v>0.0009543945941761844</v>
+        <v>0.008512471165115058</v>
       </c>
       <c r="T10">
-        <v>0.0009543945941761842</v>
+        <v>0.008512471165115059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8780123333333334</v>
+        <v>2.782337</v>
       </c>
       <c r="H11">
-        <v>2.634037</v>
+        <v>8.347011</v>
       </c>
       <c r="I11">
-        <v>0.003936225977250685</v>
+        <v>0.01271632230366867</v>
       </c>
       <c r="J11">
-        <v>0.003936225977250685</v>
+        <v>0.01271632230366867</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.7109436666666666</v>
+        <v>0.4191073333333333</v>
       </c>
       <c r="N11">
-        <v>2.132831</v>
+        <v>1.257322</v>
       </c>
       <c r="O11">
-        <v>0.5327047435459068</v>
+        <v>0.194886326823596</v>
       </c>
       <c r="P11">
-        <v>0.5327047435459068</v>
+        <v>0.194886326823596</v>
       </c>
       <c r="Q11">
-        <v>0.6242173076385555</v>
+        <v>1.166097840504667</v>
       </c>
       <c r="R11">
-        <v>5.617955768747001</v>
+        <v>10.494880564542</v>
       </c>
       <c r="S11">
-        <v>0.002096846249750063</v>
+        <v>0.002478237344466955</v>
       </c>
       <c r="T11">
-        <v>0.002096846249750063</v>
+        <v>0.002478237344466955</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8780123333333334</v>
+        <v>2.782337</v>
       </c>
       <c r="H12">
-        <v>2.634037</v>
+        <v>8.347011</v>
       </c>
       <c r="I12">
-        <v>0.003936225977250685</v>
+        <v>0.01271632230366867</v>
       </c>
       <c r="J12">
-        <v>0.003936225977250685</v>
+        <v>0.01271632230366867</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,33 +1175,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4191073333333333</v>
+        <v>0.2590796666666667</v>
       </c>
       <c r="N12">
-        <v>1.257322</v>
+        <v>0.777239</v>
       </c>
       <c r="O12">
-        <v>0.3140339734205976</v>
+        <v>0.1204729208381345</v>
       </c>
       <c r="P12">
-        <v>0.3140339734205976</v>
+        <v>0.1204729208381345</v>
       </c>
       <c r="Q12">
-        <v>0.3679814076571111</v>
+        <v>0.7208469425143333</v>
       </c>
       <c r="R12">
-        <v>3.311832668914</v>
+        <v>6.487622482629</v>
       </c>
       <c r="S12">
-        <v>0.001236108683917407</v>
+        <v>0.001531972490242079</v>
       </c>
       <c r="T12">
-        <v>0.001236108683917407</v>
+        <v>0.00153197249024208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.782337</v>
+      </c>
+      <c r="H13">
+        <v>8.347011</v>
+      </c>
+      <c r="I13">
+        <v>0.01271632230366867</v>
+      </c>
+      <c r="J13">
+        <v>0.01271632230366867</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03274766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.098243</v>
+      </c>
+      <c r="O13">
+        <v>0.01522777570592938</v>
+      </c>
+      <c r="P13">
+        <v>0.01522777570592938</v>
+      </c>
+      <c r="Q13">
+        <v>0.09111504463033333</v>
+      </c>
+      <c r="R13">
+        <v>0.820035401673</v>
+      </c>
+      <c r="S13">
+        <v>0.0001936413038445737</v>
+      </c>
+      <c r="T13">
+        <v>0.0001936413038445737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7307363333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.192209</v>
+      </c>
+      <c r="I14">
+        <v>0.003339738764092102</v>
+      </c>
+      <c r="J14">
+        <v>0.003339738764092103</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.439587333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.318762</v>
+      </c>
+      <c r="O14">
+        <v>0.66941297663234</v>
+      </c>
+      <c r="P14">
+        <v>0.6694129766323401</v>
+      </c>
+      <c r="Q14">
+        <v>1.051958769473111</v>
+      </c>
+      <c r="R14">
+        <v>9.467628925257999</v>
+      </c>
+      <c r="S14">
+        <v>0.002235664467245306</v>
+      </c>
+      <c r="T14">
+        <v>0.002235664467245307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7307363333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.192209</v>
+      </c>
+      <c r="I15">
+        <v>0.003339738764092102</v>
+      </c>
+      <c r="J15">
+        <v>0.003339738764092103</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.4191073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.257322</v>
+      </c>
+      <c r="O15">
+        <v>0.194886326823596</v>
+      </c>
+      <c r="P15">
+        <v>0.194886326823596</v>
+      </c>
+      <c r="Q15">
+        <v>0.3062569560331111</v>
+      </c>
+      <c r="R15">
+        <v>2.756312604298</v>
+      </c>
+      <c r="S15">
+        <v>0.000650869420284286</v>
+      </c>
+      <c r="T15">
+        <v>0.0006508694202842862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.8780123333333334</v>
-      </c>
-      <c r="H13">
-        <v>2.634037</v>
-      </c>
-      <c r="I13">
-        <v>0.003936225977250685</v>
-      </c>
-      <c r="J13">
-        <v>0.003936225977250685</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2045413333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.6136239999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1532612830334956</v>
-      </c>
-      <c r="P13">
-        <v>0.1532612830334956</v>
-      </c>
-      <c r="Q13">
-        <v>0.1795898133431111</v>
-      </c>
-      <c r="R13">
-        <v>1.616308320088</v>
-      </c>
-      <c r="S13">
-        <v>0.0006032710435832152</v>
-      </c>
-      <c r="T13">
-        <v>0.0006032710435832151</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7307363333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.192209</v>
+      </c>
+      <c r="I16">
+        <v>0.003339738764092102</v>
+      </c>
+      <c r="J16">
+        <v>0.003339738764092103</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.2590796666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.777239</v>
+      </c>
+      <c r="O16">
+        <v>0.1204729208381345</v>
+      </c>
+      <c r="P16">
+        <v>0.1204729208381345</v>
+      </c>
+      <c r="Q16">
+        <v>0.1893189256612222</v>
+      </c>
+      <c r="R16">
+        <v>1.703870330951</v>
+      </c>
+      <c r="S16">
+        <v>0.000402348083746517</v>
+      </c>
+      <c r="T16">
+        <v>0.0004023480837465171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7307363333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.192209</v>
+      </c>
+      <c r="I17">
+        <v>0.003339738764092102</v>
+      </c>
+      <c r="J17">
+        <v>0.003339738764092103</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03274766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.098243</v>
+      </c>
+      <c r="O17">
+        <v>0.01522777570592938</v>
+      </c>
+      <c r="P17">
+        <v>0.01522777570592938</v>
+      </c>
+      <c r="Q17">
+        <v>0.02392990986522222</v>
+      </c>
+      <c r="R17">
+        <v>0.215369188787</v>
+      </c>
+      <c r="S17">
+        <v>5.085679281599233E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.085679281599234E-05</v>
       </c>
     </row>
   </sheetData>
